--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_4_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989162</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D11" t="n">
         <v>410.3391557398498</v>
@@ -1432,7 +1432,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
       </c>
       <c r="F17" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
         <v>397.8840054528454</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201042</v>
+        <v>346.4706963200989</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H32" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
         <v>648.751427201877</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D38" t="n">
         <v>410.3391557398498</v>
@@ -3565,7 +3565,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
         <v>629.8510241668239</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E41" t="n">
         <v>404.3632896068686</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E44" t="n">
         <v>404.3632896068686</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4312,46 +4312,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1677.76186642996</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>2595.354589746543</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M2" t="n">
-        <v>3077.533789260046</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P2" t="n">
         <v>6474.295852434775</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,46 +4470,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>401.8559106757458</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>419.2509052683519</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4539,7 +4539,7 @@
         <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4564,34 +4564,34 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4740,13 +4740,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4810,28 +4810,28 @@
         <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4815.933753230444</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5726.088636171188</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6561.955964268602</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
         <v>2126.146990020859</v>
@@ -5044,31 +5044,31 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>2049.12665539136</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L11" t="n">
-        <v>3071.357825473565</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987068</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.58008885974</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5080,19 +5080,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5211,22 +5211,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
         <v>140.96</v>
@@ -5281,37 +5281,37 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M14" t="n">
-        <v>3194.417427023049</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N14" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
         <v>6118.11576243671</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
         <v>140.96</v>
@@ -5448,46 +5448,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
         <v>894.2358041069906</v>
@@ -5521,28 +5521,28 @@
         <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>2683.01470158037</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5685,43 +5685,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
         <v>140.96</v>
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5755,28 +5755,28 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>3379.82357278602</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.978455726764</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P20" t="n">
-        <v>5987.71793717156</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
         <v>7048</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5922,43 +5922,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342926</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K23" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L23" t="n">
-        <v>3042.307675747712</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M23" t="n">
-        <v>3524.486875261216</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N23" t="n">
-        <v>4089.529939133888</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O23" t="n">
-        <v>4999.684822074631</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6159,46 +6159,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6229,31 +6229,31 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>974.1471760311915</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1713.790319599031</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L26" t="n">
-        <v>2631.383042915614</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6366,16 +6366,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
         <v>140.96</v>
@@ -6396,46 +6396,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>669.1334430047632</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1408.776586572602</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>2326.369309889185</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>2808.548509402688</v>
+        <v>2836.195545690814</v>
       </c>
       <c r="N29" t="n">
-        <v>3373.59157327536</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O29" t="n">
-        <v>4283.746456216104</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P29" t="n">
         <v>5981.4859376609</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6633,46 +6633,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6718,16 +6718,16 @@
         <v>2814.780508913348</v>
       </c>
       <c r="N32" t="n">
-        <v>4118.58008885974</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O32" t="n">
-        <v>5028.734971800483</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P32" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6870,46 +6870,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6946,25 +6946,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043491</v>
+        <v>1830.673957362034</v>
       </c>
       <c r="L35" t="n">
-        <v>2257.013012360075</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M35" t="n">
-        <v>2739.192211873577</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.235275746249</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O35" t="n">
-        <v>4214.390158686993</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P35" t="n">
-        <v>5912.12964013179</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -6973,22 +6973,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7107,28 +7107,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
         <v>140.96</v>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
         <v>2126.146990020859</v>
@@ -7177,28 +7177,28 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043491</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>2257.013012360075</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M38" t="n">
-        <v>2739.192211873577</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.235275746249</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>4214.390158686993</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7213,19 +7213,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7344,46 +7344,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
         <v>1711.662994324041</v>
@@ -7420,22 +7420,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M41" t="n">
-        <v>2814.780508913348</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N41" t="n">
-        <v>3379.82357278602</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.978455726764</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P41" t="n">
-        <v>5987.71793717156</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7581,46 +7581,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
         <v>1711.662994324041</v>
@@ -7657,10 +7657,10 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.420289043491</v>
+        <v>1677.76186642996</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.013012360075</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M44" t="n">
         <v>3077.533789260046</v>
@@ -7687,19 +7687,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7818,22 +7818,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
         <v>140.96</v>
@@ -7981,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>341.7591690772408</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="N2" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>214.8909222650855</v>
+        <v>822.5705182964548</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8458,19 +8458,19 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>603.283928249446</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>29.51871305977448</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,34 +8692,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>105.6954007733557</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.1786869636869</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M14" t="n">
-        <v>383.4716344542435</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1096.663422488788</v>
+        <v>603.283928249446</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,22 +9178,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1008.117854979872</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -9421,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P20" t="n">
-        <v>870.5779326741233</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="Q20" t="n">
-        <v>609.5571242689075</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>137.53992230575</v>
       </c>
       <c r="P23" t="n">
-        <v>645.1956588512487</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>301.7997308240091</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>839.6117546116196</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>70.05686619102141</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>21.63135028026943</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10366,19 +10366,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>746.2187031047674</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>383.4716344542428</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>496.2158265843866</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>567.8446588919048</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,16 +10840,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>931.766039788185</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964543</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,16 +11077,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>29.34358558166855</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>491.4928437002173</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>341.7591690772408</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7591690772404</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1096.663422488788</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23469,7 +23469,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R13" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S13" t="n">
         <v>316.45975839138</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C16" t="n">
-        <v>258.3271444610434</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D16" t="n">
         <v>285.5362180555555</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23715,7 +23715,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23964,7 +23964,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24189,7 +24189,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
         <v>199.1703102162162</v>
@@ -24201,7 +24201,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y22" t="n">
-        <v>273.0672506624611</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="23">
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292970999</v>
+        <v>1.388344292976342</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D25" t="n">
-        <v>217.7275736568375</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E25" t="n">
         <v>280.9809048369565</v>
@@ -24390,7 +24390,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24618,7 +24618,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F28" t="n">
-        <v>259.9847537807407</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G28" t="n">
         <v>242.4092826775956</v>
@@ -24636,10 +24636,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>168.0209277307011</v>
@@ -24648,7 +24648,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P28" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q28" t="n">
         <v>505.228266425598</v>
@@ -24663,7 +24663,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>83.00604195770715</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24900,7 +24900,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
@@ -24937,10 +24937,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25821,10 +25821,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>168.0209277307011</v>
@@ -25833,7 +25833,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q43" t="n">
         <v>505.228266425598</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26076,7 +26076,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R46" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S46" t="n">
         <v>316.45975839138</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.9852657937</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.4033922273</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866087</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.41921426968</v>
+        <v>5299282.597556977</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.0169098785</v>
+        <v>6511928.765912143</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.9342673</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010961</v>
+        <v>8937221.102622457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.8099967049</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923137</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879225</v>
+        <v>12575159.60768792</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835313</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791401</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747491</v>
+        <v>16213098.11275342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703582</v>
+        <v>17425744.2811086</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659673</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245013</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="E2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>761428.9894323127</v>
+      </c>
+      <c r="G2" t="n">
+        <v>761428.9894323121</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="I2" t="n">
         <v>761428.9894323124</v>
       </c>
-      <c r="F2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="H2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323128</v>
-      </c>
       <c r="J2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="K2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="L2" t="n">
         <v>761428.9894323124</v>
@@ -26355,10 +26355,10 @@
         <v>761428.9894323122</v>
       </c>
       <c r="N2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="P2" t="n">
         <v>761428.9894323123</v>
@@ -26435,16 +26435,16 @@
         <v>26356.19966309947</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="G4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
         <v>26356.19966309946</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309952</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
@@ -26453,16 +26453,16 @@
         <v>26356.19966309946</v>
       </c>
       <c r="L4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="M4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="M4" t="n">
-        <v>26356.19966309946</v>
-      </c>
       <c r="N4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
         <v>26356.19966309947</v>
@@ -26530,28 +26530,28 @@
         <v>-1468875.03866173</v>
       </c>
       <c r="C6" t="n">
-        <v>576125.912392751</v>
+        <v>576125.9123927508</v>
       </c>
       <c r="D6" t="n">
-        <v>576428.273062684</v>
+        <v>576428.2730626841</v>
       </c>
       <c r="E6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="F6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692133</v>
       </c>
       <c r="G6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692126</v>
       </c>
       <c r="H6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="I6" t="n">
-        <v>596093.3897692133</v>
+        <v>596093.3897692129</v>
       </c>
       <c r="J6" t="n">
-        <v>-24130.61023078703</v>
+        <v>-24130.61023078715</v>
       </c>
       <c r="K6" t="n">
         <v>596093.3897692128</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>70.48631207019244</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27735,7 +27735,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="5">
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27936,16 +27936,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -34825,28 +34825,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1088.873455509402</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
-        <v>487.0496964782857</v>
+        <v>978.542540178503</v>
       </c>
       <c r="N2" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
@@ -34992,7 +34992,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>38.63038883044609</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35031,7 +35031,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1141.752258948503</v>
+        <v>1749.431854979872</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35232,16 +35232,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35302,19 +35302,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>1350.398214681607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35323,10 +35323,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>490.9535714458568</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35536,34 +35536,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.556737456773</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>777.9292565320427</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,22 +35773,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M14" t="n">
-        <v>870.5213309325291</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>1667.413992057144</v>
+        <v>1174.034497817802</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
@@ -35800,7 +35800,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36013,31 +36013,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>1495.167551458158</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1558.14567116316</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36265,13 +36265,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P20" t="n">
-        <v>1714.888365095753</v>
+        <v>1558.14567116316</v>
       </c>
       <c r="Q20" t="n">
-        <v>1070.99198265499</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1056.888288912562</v>
       </c>
       <c r="P23" t="n">
-        <v>1489.506091272879</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36721,19 +36721,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>765.2513929206274</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>1547.320742028618</v>
+        <v>1326.661451089905</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36748,7 +36748,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,28 +36958,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>533.5085282876397</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>508.6810467585551</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>1077.286931655656</v>
@@ -37210,19 +37210,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>1316.969272673123</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1227.782066875873</v>
       </c>
       <c r="Q32" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37438,13 +37438,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>1243.330113016547</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37453,13 +37453,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1029.279517277987</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,31 +37669,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1502.516609356541</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718084</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37912,7 +37912,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
         <v>926.861336683417</v>
@@ -37921,16 +37921,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>600.0941551500242</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>952.9277020862996</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38149,13 +38149,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321608</v>
+        <v>1088.873455509402</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M44" t="n">
-        <v>828.808865555526</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>1667.413992057144</v>
